--- a/data/TT/Slot-2020.xlsx
+++ b/data/TT/Slot-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\TT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129CB5E5-1AC1-4C64-910B-A07BF78950CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7994CF4A-0BFD-4156-B242-1CE5C902749A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -739,11 +739,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G667"/>
+  <dimension ref="A1:G687"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6252,7 +6252,7 @@
         <v>17</v>
       </c>
       <c r="F275" s="2">
-        <v>0.4375</v>
+        <v>43925.4375</v>
       </c>
       <c r="G275" s="1">
         <v>90</v>
@@ -6272,7 +6272,7 @@
         <v>17</v>
       </c>
       <c r="F276" s="2">
-        <v>0.5</v>
+        <v>43925.5</v>
       </c>
       <c r="G276" s="1">
         <v>90</v>
@@ -6292,7 +6292,7 @@
         <v>17</v>
       </c>
       <c r="F277" s="2">
-        <v>0.5625</v>
+        <v>43925.5625</v>
       </c>
       <c r="G277" s="1">
         <v>120</v>
@@ -6312,7 +6312,7 @@
         <v>17</v>
       </c>
       <c r="F278" s="2">
-        <v>0.64583333333333337</v>
+        <v>43925.645833333336</v>
       </c>
       <c r="G278" s="1">
         <v>120</v>
@@ -8912,7 +8912,7 @@
         <v>17</v>
       </c>
       <c r="F408" s="2">
-        <v>0.4375</v>
+        <v>43939.4375</v>
       </c>
       <c r="G408" s="1">
         <v>90</v>
@@ -8932,7 +8932,7 @@
         <v>17</v>
       </c>
       <c r="F409" s="2">
-        <v>0.5</v>
+        <v>43939.5</v>
       </c>
       <c r="G409" s="1">
         <v>90</v>
@@ -8952,7 +8952,7 @@
         <v>17</v>
       </c>
       <c r="F410" s="2">
-        <v>0.5625</v>
+        <v>43939.5625</v>
       </c>
       <c r="G410" s="1">
         <v>120</v>
@@ -8972,7 +8972,7 @@
         <v>17</v>
       </c>
       <c r="F411" s="2">
-        <v>0.64583333333333337</v>
+        <v>43939.645833333336</v>
       </c>
       <c r="G411" s="1">
         <v>120</v>
@@ -9826,7 +9826,7 @@
         <v>10</v>
       </c>
       <c r="C454" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D454" s="1">
         <v>2</v>
@@ -9835,7 +9835,7 @@
         <v>43946.375</v>
       </c>
       <c r="G454" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.3">
@@ -9846,16 +9846,16 @@
         <v>10</v>
       </c>
       <c r="C455" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D455" s="1">
         <v>2</v>
       </c>
       <c r="F455" s="2">
-        <v>43946.447916666664</v>
+        <v>43946.458333333336</v>
       </c>
       <c r="G455" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.3">
@@ -9866,16 +9866,16 @@
         <v>10</v>
       </c>
       <c r="C456" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D456" s="1">
         <v>2</v>
       </c>
       <c r="F456" s="2">
-        <v>43946.520833333336</v>
+        <v>43946.541666666664</v>
       </c>
       <c r="G456" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.3">
@@ -9886,16 +9886,16 @@
         <v>10</v>
       </c>
       <c r="C457" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D457" s="1">
         <v>2</v>
       </c>
       <c r="F457" s="2">
-        <v>43946.59375</v>
+        <v>43946.625</v>
       </c>
       <c r="G457" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.3">
@@ -9903,19 +9903,19 @@
         <v>457</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C458" s="1">
-        <v>3</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="D458" s="1">
+        <v>2</v>
       </c>
       <c r="F458" s="2">
-        <v>43946.375</v>
+        <v>43946.708333333336</v>
       </c>
       <c r="G458" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.3">
@@ -9926,16 +9926,16 @@
         <v>11</v>
       </c>
       <c r="C459" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F459" s="2">
-        <v>43946.447916666664</v>
+        <v>43946.375</v>
       </c>
       <c r="G459" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.3">
@@ -9946,16 +9946,16 @@
         <v>11</v>
       </c>
       <c r="C460" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F460" s="2">
-        <v>43946.520833333336</v>
+        <v>43946.458333333336</v>
       </c>
       <c r="G460" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.3">
@@ -9966,16 +9966,16 @@
         <v>11</v>
       </c>
       <c r="C461" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F461" s="2">
-        <v>43946.59375</v>
+        <v>43946.541666666664</v>
       </c>
       <c r="G461" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.3">
@@ -9983,19 +9983,19 @@
         <v>461</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C462" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F462" s="2">
-        <v>43946.375</v>
+        <v>43946.625</v>
       </c>
       <c r="G462" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.3">
@@ -10003,19 +10003,19 @@
         <v>462</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C463" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F463" s="2">
-        <v>43946.447916666664</v>
+        <v>43946.708333333336</v>
       </c>
       <c r="G463" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.3">
@@ -10026,16 +10026,16 @@
         <v>12</v>
       </c>
       <c r="C464" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F464" s="2">
-        <v>43946.520833333336</v>
+        <v>43946.375</v>
       </c>
       <c r="G464" s="1">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.3">
@@ -10052,7 +10052,7 @@
         <v>13</v>
       </c>
       <c r="F465" s="2">
-        <v>43946.59375</v>
+        <v>43946.416666666664</v>
       </c>
       <c r="G465" s="1">
         <v>105</v>
@@ -10063,19 +10063,19 @@
         <v>465</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C466" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F466" s="2">
-        <v>43946.375</v>
+        <v>43946.489583333336</v>
       </c>
       <c r="G466" s="1">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.3">
@@ -10083,19 +10083,19 @@
         <v>466</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C467" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F467" s="2">
-        <v>43946.416666666664</v>
+        <v>43946.5625</v>
       </c>
       <c r="G467" s="1">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.3">
@@ -10103,19 +10103,19 @@
         <v>467</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C468" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F468" s="2">
-        <v>43946.458333333336</v>
+        <v>43946.635416666664</v>
       </c>
       <c r="G468" s="1">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.3">
@@ -10123,19 +10123,19 @@
         <v>468</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C469" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F469" s="2">
-        <v>43946.520833333336</v>
+        <v>43946.708333333336</v>
       </c>
       <c r="G469" s="1">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.3">
@@ -10146,16 +10146,16 @@
         <v>6</v>
       </c>
       <c r="C470" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F470" s="2">
-        <v>43946.583333333336</v>
+        <v>43946.375</v>
       </c>
       <c r="G470" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.3">
@@ -10163,19 +10163,19 @@
         <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C471" s="1">
-        <v>6</v>
-      </c>
-      <c r="D471" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F471" s="2">
-        <v>43946.375</v>
+        <v>43946.416666666664</v>
       </c>
       <c r="G471" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.3">
@@ -10183,19 +10183,19 @@
         <v>471</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C472" s="1">
-        <v>4</v>
-      </c>
-      <c r="D472" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F472" s="2">
-        <v>43946.416666666664</v>
+        <v>43946.479166666664</v>
       </c>
       <c r="G472" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.3">
@@ -10203,19 +10203,19 @@
         <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C473" s="1">
-        <v>4</v>
-      </c>
-      <c r="D473" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F473" s="2">
-        <v>43946.489583333336</v>
+        <v>43946.541666666664</v>
       </c>
       <c r="G473" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.3">
@@ -10223,19 +10223,19 @@
         <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C474" s="1">
-        <v>4</v>
-      </c>
-      <c r="D474" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F474" s="2">
-        <v>43946.5625</v>
+        <v>43946.604166666664</v>
       </c>
       <c r="G474" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.3">
@@ -10243,19 +10243,19 @@
         <v>474</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C475" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F475" s="2">
-        <v>43946.375</v>
+        <v>43946.666666666664</v>
       </c>
       <c r="G475" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.3">
@@ -10263,19 +10263,19 @@
         <v>475</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C476" s="1">
-        <v>4</v>
-      </c>
-      <c r="D476" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="D476" s="1">
+        <v>5</v>
       </c>
       <c r="F476" s="2">
-        <v>43946.416666666664</v>
+        <v>43946.375</v>
       </c>
       <c r="G476" s="1">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.3">
@@ -10283,16 +10283,16 @@
         <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C477" s="1">
         <v>4</v>
       </c>
-      <c r="D477" s="1" t="s">
-        <v>19</v>
+      <c r="D477" s="1">
+        <v>5</v>
       </c>
       <c r="F477" s="2">
-        <v>43946.489583333336</v>
+        <v>43946.416666666664</v>
       </c>
       <c r="G477" s="1">
         <v>105</v>
@@ -10303,16 +10303,16 @@
         <v>477</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C478" s="1">
         <v>4</v>
       </c>
-      <c r="D478" s="1" t="s">
-        <v>19</v>
+      <c r="D478" s="1">
+        <v>5</v>
       </c>
       <c r="F478" s="2">
-        <v>43946.5625</v>
+        <v>43946.489583333336</v>
       </c>
       <c r="G478" s="1">
         <v>105</v>
@@ -10323,19 +10323,19 @@
         <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C479" s="1">
-        <v>6</v>
-      </c>
-      <c r="D479" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D479" s="1">
+        <v>5</v>
       </c>
       <c r="F479" s="2">
-        <v>43946.375</v>
+        <v>43946.5625</v>
       </c>
       <c r="G479" s="1">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.3">
@@ -10343,19 +10343,19 @@
         <v>479</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C480" s="1">
-        <v>5</v>
-      </c>
-      <c r="D480" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D480" s="1">
+        <v>5</v>
       </c>
       <c r="F480" s="2">
-        <v>43946.416666666664</v>
+        <v>43946.635416666664</v>
       </c>
       <c r="G480" s="1">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.3">
@@ -10363,19 +10363,19 @@
         <v>480</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C481" s="1">
-        <v>5</v>
-      </c>
-      <c r="D481" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D481" s="1">
+        <v>5</v>
       </c>
       <c r="F481" s="2">
-        <v>43946.479166666664</v>
+        <v>43946.708333333336</v>
       </c>
       <c r="G481" s="1">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.3">
@@ -10383,19 +10383,19 @@
         <v>481</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C482" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F482" s="2">
         <v>43946.375</v>
       </c>
       <c r="G482" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.3">
@@ -10403,19 +10403,19 @@
         <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C483" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F483" s="2">
-        <v>43946.4375</v>
+        <v>43946.416666666664</v>
       </c>
       <c r="G483" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.3">
@@ -10423,16 +10423,16 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C484" s="1">
         <v>5</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F484" s="2">
-        <v>43946.5</v>
+        <v>43946.458333333336</v>
       </c>
       <c r="G484" s="1">
         <v>90</v>
@@ -10443,19 +10443,19 @@
         <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C485" s="1">
-        <v>1</v>
-      </c>
-      <c r="D485" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F485" s="2">
-        <v>43948.75</v>
+        <v>43946.520833333336</v>
       </c>
       <c r="G485" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.3">
@@ -10463,19 +10463,19 @@
         <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C486" s="1">
-        <v>1</v>
-      </c>
-      <c r="D486" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F486" s="2">
-        <v>43948.833333333336</v>
+        <v>43946.583333333336</v>
       </c>
       <c r="G486" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.3">
@@ -10483,19 +10483,19 @@
         <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C487" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F487" s="2">
-        <v>43948.75</v>
+        <v>43946.645833333336</v>
       </c>
       <c r="G487" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.3">
@@ -10503,19 +10503,19 @@
         <v>487</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C488" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F488" s="2">
-        <v>43948.833333333336</v>
+        <v>43946.71875</v>
       </c>
       <c r="G488" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.3">
@@ -10523,19 +10523,19 @@
         <v>488</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C489" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F489" s="2">
-        <v>43948.75</v>
+        <v>43946.375</v>
       </c>
       <c r="G489" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.3">
@@ -10543,19 +10543,19 @@
         <v>489</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C490" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F490" s="2">
-        <v>43948.822916666664</v>
+        <v>43946.458333333336</v>
       </c>
       <c r="G490" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.3">
@@ -10563,19 +10563,19 @@
         <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C491" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F491" s="2">
-        <v>43948.75</v>
+        <v>43946.541666666664</v>
       </c>
       <c r="G491" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.3">
@@ -10583,19 +10583,19 @@
         <v>491</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C492" s="1">
-        <v>5</v>
-      </c>
-      <c r="D492" s="1">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F492" s="2">
-        <v>43948.75</v>
+        <v>43946.625</v>
       </c>
       <c r="G492" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.3">
@@ -10603,16 +10603,16 @@
         <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C493" s="1">
         <v>3</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F493" s="2">
-        <v>43948.75</v>
+        <v>43946.708333333336</v>
       </c>
       <c r="G493" s="1">
         <v>105</v>
@@ -10623,16 +10623,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C494" s="1">
         <v>3</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F494" s="2">
-        <v>43948.822916666664</v>
+        <v>43946.375</v>
       </c>
       <c r="G494" s="1">
         <v>105</v>
@@ -10643,19 +10643,19 @@
         <v>494</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C495" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F495" s="2">
-        <v>43948.75</v>
+        <v>43946.447916666664</v>
       </c>
       <c r="G495" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.3">
@@ -10663,19 +10663,19 @@
         <v>495</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C496" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F496" s="2">
-        <v>43948.833333333336</v>
+        <v>43946.520833333336</v>
       </c>
       <c r="G496" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.3">
@@ -10692,7 +10692,7 @@
         <v>17</v>
       </c>
       <c r="F497" s="2">
-        <v>43948.75</v>
+        <v>43946.59375</v>
       </c>
       <c r="G497" s="1">
         <v>105</v>
@@ -10706,16 +10706,16 @@
         <v>5</v>
       </c>
       <c r="C498" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F498" s="2">
-        <v>43948.822916666664</v>
+        <v>43946.666666666664</v>
       </c>
       <c r="G498" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.3">
@@ -10732,7 +10732,7 @@
         <v>2</v>
       </c>
       <c r="F499" s="2">
-        <v>43949.75</v>
+        <v>43948.75</v>
       </c>
       <c r="G499" s="1">
         <v>120</v>
@@ -10752,7 +10752,7 @@
         <v>2</v>
       </c>
       <c r="F500" s="2">
-        <v>43949.833333333336</v>
+        <v>43948.833333333336</v>
       </c>
       <c r="G500" s="1">
         <v>120</v>
@@ -10772,7 +10772,7 @@
         <v>16</v>
       </c>
       <c r="F501" s="2">
-        <v>43949.75</v>
+        <v>43948.75</v>
       </c>
       <c r="G501" s="1">
         <v>120</v>
@@ -10792,7 +10792,7 @@
         <v>16</v>
       </c>
       <c r="F502" s="2">
-        <v>43949.833333333336</v>
+        <v>43948.833333333336</v>
       </c>
       <c r="G502" s="1">
         <v>120</v>
@@ -10812,7 +10812,7 @@
         <v>13</v>
       </c>
       <c r="F503" s="2">
-        <v>43949.75</v>
+        <v>43948.75</v>
       </c>
       <c r="G503" s="1">
         <v>105</v>
@@ -10832,7 +10832,7 @@
         <v>13</v>
       </c>
       <c r="F504" s="2">
-        <v>43949.822916666664</v>
+        <v>43948.822916666664</v>
       </c>
       <c r="G504" s="1">
         <v>105</v>
@@ -10852,7 +10852,7 @@
         <v>18</v>
       </c>
       <c r="F505" s="2">
-        <v>43949.75</v>
+        <v>43948.75</v>
       </c>
       <c r="G505" s="1">
         <v>90</v>
@@ -10863,16 +10863,16 @@
         <v>505</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C506" s="1">
         <v>5</v>
       </c>
-      <c r="D506" s="1" t="s">
-        <v>18</v>
+      <c r="D506" s="1">
+        <v>5</v>
       </c>
       <c r="F506" s="2">
-        <v>43949.8125</v>
+        <v>43948.75</v>
       </c>
       <c r="G506" s="1">
         <v>90</v>
@@ -10892,7 +10892,7 @@
         <v>19</v>
       </c>
       <c r="F507" s="2">
-        <v>43949.75</v>
+        <v>43948.75</v>
       </c>
       <c r="G507" s="1">
         <v>105</v>
@@ -10912,7 +10912,7 @@
         <v>19</v>
       </c>
       <c r="F508" s="2">
-        <v>43949.822916666664</v>
+        <v>43948.822916666664</v>
       </c>
       <c r="G508" s="1">
         <v>105</v>
@@ -10926,13 +10926,13 @@
         <v>7</v>
       </c>
       <c r="C509" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F509" s="2">
-        <v>43949.75</v>
+        <v>43948.75</v>
       </c>
       <c r="G509" s="1">
         <v>120</v>
@@ -10946,13 +10946,13 @@
         <v>7</v>
       </c>
       <c r="C510" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F510" s="2">
-        <v>43949.833333333336</v>
+        <v>43948.833333333336</v>
       </c>
       <c r="G510" s="1">
         <v>120</v>
@@ -10972,7 +10972,7 @@
         <v>17</v>
       </c>
       <c r="F511" s="2">
-        <v>43949.75</v>
+        <v>43948.75</v>
       </c>
       <c r="G511" s="1">
         <v>105</v>
@@ -10986,16 +10986,16 @@
         <v>5</v>
       </c>
       <c r="C512" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D512" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F512" s="2">
-        <v>43949.822916666664</v>
+        <v>43948.822916666664</v>
       </c>
       <c r="G512" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.3">
@@ -11012,7 +11012,7 @@
         <v>2</v>
       </c>
       <c r="F513" s="2">
-        <v>43950.75</v>
+        <v>43949.75</v>
       </c>
       <c r="G513" s="1">
         <v>120</v>
@@ -11032,7 +11032,7 @@
         <v>2</v>
       </c>
       <c r="F514" s="2">
-        <v>43950.833333333336</v>
+        <v>43949.833333333336</v>
       </c>
       <c r="G514" s="1">
         <v>120</v>
@@ -11052,7 +11052,7 @@
         <v>16</v>
       </c>
       <c r="F515" s="2">
-        <v>43950.75</v>
+        <v>43949.75</v>
       </c>
       <c r="G515" s="1">
         <v>120</v>
@@ -11072,7 +11072,7 @@
         <v>16</v>
       </c>
       <c r="F516" s="2">
-        <v>43950.833333333336</v>
+        <v>43949.833333333336</v>
       </c>
       <c r="G516" s="1">
         <v>120</v>
@@ -11092,7 +11092,7 @@
         <v>13</v>
       </c>
       <c r="F517" s="2">
-        <v>43950.75</v>
+        <v>43949.75</v>
       </c>
       <c r="G517" s="1">
         <v>105</v>
@@ -11103,19 +11103,19 @@
         <v>517</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C518" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F518" s="2">
-        <v>43950.75</v>
+        <v>43949.822916666664</v>
       </c>
       <c r="G518" s="1">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.3">
@@ -11123,19 +11123,19 @@
         <v>518</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C519" s="1">
-        <v>4</v>
-      </c>
-      <c r="D519" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F519" s="2">
-        <v>43950.75</v>
+        <v>43949.75</v>
       </c>
       <c r="G519" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.3">
@@ -11143,19 +11143,19 @@
         <v>519</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C520" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D520" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F520" s="2">
-        <v>43950.75</v>
+        <v>43949.8125</v>
       </c>
       <c r="G520" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.3">
@@ -11172,7 +11172,7 @@
         <v>19</v>
       </c>
       <c r="F521" s="2">
-        <v>43950.822916666664</v>
+        <v>43949.75</v>
       </c>
       <c r="G521" s="1">
         <v>105</v>
@@ -11183,16 +11183,16 @@
         <v>521</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C522" s="1">
         <v>3</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F522" s="2">
-        <v>43950.75</v>
+        <v>43949.822916666664</v>
       </c>
       <c r="G522" s="1">
         <v>105</v>
@@ -11206,16 +11206,16 @@
         <v>7</v>
       </c>
       <c r="C523" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D523" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F523" s="2">
-        <v>43950.822916666664</v>
+        <v>43949.75</v>
       </c>
       <c r="G523" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.3">
@@ -11223,16 +11223,16 @@
         <v>523</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C524" s="1">
-        <v>1</v>
-      </c>
-      <c r="D524" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F524" s="2">
-        <v>43952.75</v>
+        <v>43949.833333333336</v>
       </c>
       <c r="G524" s="1">
         <v>120</v>
@@ -11243,19 +11243,19 @@
         <v>524</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C525" s="1">
-        <v>1</v>
-      </c>
-      <c r="D525" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F525" s="2">
-        <v>43952.833333333336</v>
+        <v>43949.75</v>
       </c>
       <c r="G525" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.3">
@@ -11263,19 +11263,19 @@
         <v>525</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C526" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F526" s="2">
-        <v>43952.75</v>
+        <v>43949.822916666664</v>
       </c>
       <c r="G526" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.3">
@@ -11283,16 +11283,16 @@
         <v>526</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C527" s="1">
-        <v>2</v>
-      </c>
-      <c r="D527" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="D527" s="1">
+        <v>2</v>
       </c>
       <c r="F527" s="2">
-        <v>43952.833333333336</v>
+        <v>43950.75</v>
       </c>
       <c r="G527" s="1">
         <v>120</v>
@@ -11303,19 +11303,19 @@
         <v>527</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C528" s="1">
-        <v>4</v>
-      </c>
-      <c r="D528" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D528" s="1">
+        <v>2</v>
       </c>
       <c r="F528" s="2">
-        <v>43952.75</v>
+        <v>43950.833333333336</v>
       </c>
       <c r="G528" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.3">
@@ -11323,19 +11323,19 @@
         <v>528</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C529" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F529" s="2">
-        <v>43952.822916666664</v>
+        <v>43950.75</v>
       </c>
       <c r="G529" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.3">
@@ -11343,19 +11343,19 @@
         <v>529</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C530" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F530" s="2">
-        <v>43952.75</v>
+        <v>43950.833333333336</v>
       </c>
       <c r="G530" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.3">
@@ -11363,19 +11363,19 @@
         <v>530</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C531" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F531" s="2">
-        <v>43952.8125</v>
+        <v>43950.75</v>
       </c>
       <c r="G531" s="1">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.3">
@@ -11383,19 +11383,19 @@
         <v>531</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C532" s="1">
-        <v>4</v>
-      </c>
-      <c r="D532" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F532" s="2">
-        <v>43952.75</v>
+        <v>43950.75</v>
       </c>
       <c r="G532" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.3">
@@ -11412,7 +11412,7 @@
         <v>5</v>
       </c>
       <c r="F533" s="2">
-        <v>43952.822916666664</v>
+        <v>43950.75</v>
       </c>
       <c r="G533" s="1">
         <v>105</v>
@@ -11426,16 +11426,16 @@
         <v>8</v>
       </c>
       <c r="C534" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D534" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F534" s="2">
-        <v>43952.75</v>
+        <v>43950.75</v>
       </c>
       <c r="G534" s="1">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.3">
@@ -11446,16 +11446,16 @@
         <v>8</v>
       </c>
       <c r="C535" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D535" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F535" s="2">
-        <v>43952.791666666664</v>
+        <v>43950.822916666664</v>
       </c>
       <c r="G535" s="1">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.3">
@@ -11463,16 +11463,16 @@
         <v>535</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C536" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F536" s="2">
-        <v>43952.833333333336</v>
+        <v>43950.75</v>
       </c>
       <c r="G536" s="1">
         <v>105</v>
@@ -11486,16 +11486,16 @@
         <v>7</v>
       </c>
       <c r="C537" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D537" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F537" s="2">
-        <v>43952.75</v>
+        <v>43950.822916666664</v>
       </c>
       <c r="G537" s="1">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.3">
@@ -11503,19 +11503,19 @@
         <v>537</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C538" s="1">
-        <v>5</v>
-      </c>
-      <c r="D538" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="D538" s="1">
+        <v>2</v>
       </c>
       <c r="F538" s="2">
-        <v>43952.8125</v>
+        <v>43952.75</v>
       </c>
       <c r="G538" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.3">
@@ -11523,19 +11523,19 @@
         <v>538</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C539" s="1">
-        <v>6</v>
-      </c>
-      <c r="D539" s="1" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="D539" s="1">
+        <v>2</v>
       </c>
       <c r="F539" s="2">
-        <v>43952.75</v>
+        <v>43952.833333333336</v>
       </c>
       <c r="G539" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.3">
@@ -11543,19 +11543,19 @@
         <v>539</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C540" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F540" s="2">
-        <v>43952.791666666664</v>
+        <v>43952.75</v>
       </c>
       <c r="G540" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.3">
@@ -11563,19 +11563,19 @@
         <v>540</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C541" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F541" s="2">
         <v>43952.833333333336</v>
       </c>
       <c r="G541" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.3">
@@ -11583,19 +11583,19 @@
         <v>541</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C542" s="1">
-        <v>1</v>
-      </c>
-      <c r="D542" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F542" s="2">
-        <v>43953.375</v>
+        <v>43952.75</v>
       </c>
       <c r="G542" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.3">
@@ -11603,19 +11603,19 @@
         <v>542</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C543" s="1">
-        <v>1</v>
-      </c>
-      <c r="D543" s="1">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F543" s="2">
-        <v>43953.458333333336</v>
+        <v>43952.822916666664</v>
       </c>
       <c r="G543" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.3">
@@ -11623,19 +11623,19 @@
         <v>543</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C544" s="1">
-        <v>1</v>
-      </c>
-      <c r="D544" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F544" s="2">
-        <v>43953.541666666664</v>
+        <v>43952.75</v>
       </c>
       <c r="G544" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.3">
@@ -11643,19 +11643,19 @@
         <v>544</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C545" s="1">
-        <v>1</v>
-      </c>
-      <c r="D545" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F545" s="2">
-        <v>43953.625</v>
+        <v>43952.8125</v>
       </c>
       <c r="G545" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.3">
@@ -11663,19 +11663,19 @@
         <v>545</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C546" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D546" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F546" s="2">
-        <v>43953.708333333336</v>
+        <v>43952.75</v>
       </c>
       <c r="G546" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.3">
@@ -11683,19 +11683,19 @@
         <v>546</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C547" s="1">
-        <v>2</v>
-      </c>
-      <c r="D547" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="D547" s="1">
+        <v>5</v>
       </c>
       <c r="F547" s="2">
-        <v>43953.375</v>
+        <v>43952.822916666664</v>
       </c>
       <c r="G547" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.3">
@@ -11703,19 +11703,19 @@
         <v>547</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C548" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F548" s="2">
-        <v>43953.458333333336</v>
+        <v>43952.75</v>
       </c>
       <c r="G548" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.3">
@@ -11723,19 +11723,19 @@
         <v>548</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C549" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F549" s="2">
-        <v>43953.541666666664</v>
+        <v>43952.791666666664</v>
       </c>
       <c r="G549" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.3">
@@ -11743,19 +11743,19 @@
         <v>549</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C550" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F550" s="2">
-        <v>43953.625</v>
+        <v>43952.833333333336</v>
       </c>
       <c r="G550" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.3">
@@ -11763,19 +11763,19 @@
         <v>550</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C551" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F551" s="2">
-        <v>43953.708333333336</v>
+        <v>43952.75</v>
       </c>
       <c r="G551" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.3">
@@ -11783,19 +11783,19 @@
         <v>551</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C552" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F552" s="2">
-        <v>43953.375</v>
+        <v>43952.8125</v>
       </c>
       <c r="G552" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.3">
@@ -11803,19 +11803,19 @@
         <v>552</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C553" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F553" s="2">
-        <v>43953.416666666664</v>
+        <v>43952.75</v>
       </c>
       <c r="G553" s="1">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.3">
@@ -11823,19 +11823,19 @@
         <v>553</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C554" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F554" s="2">
-        <v>43953.489583333336</v>
+        <v>43952.791666666664</v>
       </c>
       <c r="G554" s="1">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.3">
@@ -11843,16 +11843,16 @@
         <v>554</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C555" s="1">
         <v>4</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F555" s="2">
-        <v>43953.5625</v>
+        <v>43952.833333333336</v>
       </c>
       <c r="G555" s="1">
         <v>105</v>
@@ -11863,19 +11863,19 @@
         <v>555</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C556" s="1">
-        <v>4</v>
-      </c>
-      <c r="D556" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D556" s="1">
+        <v>2</v>
       </c>
       <c r="F556" s="2">
-        <v>43953.635416666664</v>
+        <v>43953.375</v>
       </c>
       <c r="G556" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.3">
@@ -11883,19 +11883,19 @@
         <v>556</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C557" s="1">
-        <v>4</v>
-      </c>
-      <c r="D557" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="D557" s="1">
+        <v>2</v>
       </c>
       <c r="F557" s="2">
-        <v>43953.708333333336</v>
+        <v>43953.458333333336</v>
       </c>
       <c r="G557" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.3">
@@ -11903,19 +11903,19 @@
         <v>557</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C558" s="1">
-        <v>7</v>
-      </c>
-      <c r="D558" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D558" s="1">
+        <v>2</v>
       </c>
       <c r="F558" s="2">
-        <v>43953.375</v>
+        <v>43953.541666666664</v>
       </c>
       <c r="G558" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.3">
@@ -11923,19 +11923,19 @@
         <v>558</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C559" s="1">
-        <v>5</v>
-      </c>
-      <c r="D559" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D559" s="1">
+        <v>2</v>
       </c>
       <c r="F559" s="2">
-        <v>43953.416666666664</v>
+        <v>43953.625</v>
       </c>
       <c r="G559" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.3">
@@ -11943,19 +11943,19 @@
         <v>559</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C560" s="1">
-        <v>5</v>
-      </c>
-      <c r="D560" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D560" s="1">
+        <v>2</v>
       </c>
       <c r="F560" s="2">
-        <v>43953.479166666664</v>
+        <v>43953.708333333336</v>
       </c>
       <c r="G560" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.3">
@@ -11963,19 +11963,19 @@
         <v>560</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C561" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F561" s="2">
-        <v>43953.541666666664</v>
+        <v>43953.375</v>
       </c>
       <c r="G561" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.3">
@@ -11983,19 +11983,19 @@
         <v>561</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C562" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F562" s="2">
-        <v>43953.604166666664</v>
+        <v>43953.458333333336</v>
       </c>
       <c r="G562" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.3">
@@ -12003,19 +12003,19 @@
         <v>562</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C563" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F563" s="2">
-        <v>43953.666666666664</v>
+        <v>43953.541666666664</v>
       </c>
       <c r="G563" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.3">
@@ -12023,19 +12023,19 @@
         <v>563</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C564" s="1">
-        <v>6</v>
-      </c>
-      <c r="D564" s="1">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F564" s="2">
-        <v>43953.375</v>
+        <v>43953.625</v>
       </c>
       <c r="G564" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.3">
@@ -12043,19 +12043,19 @@
         <v>564</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C565" s="1">
-        <v>4</v>
-      </c>
-      <c r="D565" s="1">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F565" s="2">
-        <v>43953.416666666664</v>
+        <v>43953.708333333336</v>
       </c>
       <c r="G565" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.3">
@@ -12063,19 +12063,19 @@
         <v>565</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C566" s="1">
-        <v>4</v>
-      </c>
-      <c r="D566" s="1">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F566" s="2">
-        <v>43953.489583333336</v>
+        <v>43953.375</v>
       </c>
       <c r="G566" s="1">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.3">
@@ -12083,16 +12083,16 @@
         <v>566</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C567" s="1">
         <v>4</v>
       </c>
-      <c r="D567" s="1">
-        <v>5</v>
+      <c r="D567" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F567" s="2">
-        <v>43953.5625</v>
+        <v>43953.416666666664</v>
       </c>
       <c r="G567" s="1">
         <v>105</v>
@@ -12103,16 +12103,16 @@
         <v>567</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C568" s="1">
         <v>4</v>
       </c>
-      <c r="D568" s="1">
-        <v>5</v>
+      <c r="D568" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F568" s="2">
-        <v>43953.635416666664</v>
+        <v>43953.489583333336</v>
       </c>
       <c r="G568" s="1">
         <v>105</v>
@@ -12123,16 +12123,16 @@
         <v>568</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C569" s="1">
         <v>4</v>
       </c>
-      <c r="D569" s="1">
-        <v>5</v>
+      <c r="D569" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F569" s="2">
-        <v>43953.708333333336</v>
+        <v>43953.5625</v>
       </c>
       <c r="G569" s="1">
         <v>105</v>
@@ -12143,19 +12143,19 @@
         <v>569</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C570" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F570" s="2">
-        <v>43953.375</v>
+        <v>43953.635416666664</v>
       </c>
       <c r="G570" s="1">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.3">
@@ -12163,19 +12163,19 @@
         <v>570</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C571" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F571" s="2">
-        <v>43953.416666666664</v>
+        <v>43953.708333333336</v>
       </c>
       <c r="G571" s="1">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.3">
@@ -12183,19 +12183,19 @@
         <v>571</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C572" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F572" s="2">
-        <v>43953.458333333336</v>
+        <v>43953.375</v>
       </c>
       <c r="G572" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.3">
@@ -12203,16 +12203,16 @@
         <v>572</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C573" s="1">
         <v>5</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F573" s="2">
-        <v>43953.520833333336</v>
+        <v>43953.416666666664</v>
       </c>
       <c r="G573" s="1">
         <v>90</v>
@@ -12223,16 +12223,16 @@
         <v>573</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C574" s="1">
         <v>5</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F574" s="2">
-        <v>43953.583333333336</v>
+        <v>43953.479166666664</v>
       </c>
       <c r="G574" s="1">
         <v>90</v>
@@ -12243,19 +12243,19 @@
         <v>574</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C575" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F575" s="2">
-        <v>43953.645833333336</v>
+        <v>43953.541666666664</v>
       </c>
       <c r="G575" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.3">
@@ -12263,19 +12263,19 @@
         <v>575</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C576" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F576" s="2">
-        <v>43953.71875</v>
+        <v>43953.604166666664</v>
       </c>
       <c r="G576" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.3">
@@ -12283,19 +12283,19 @@
         <v>576</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C577" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F577" s="2">
-        <v>43953.375</v>
+        <v>43953.666666666664</v>
       </c>
       <c r="G577" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.3">
@@ -12303,19 +12303,19 @@
         <v>577</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C578" s="1">
-        <v>2</v>
-      </c>
-      <c r="D578" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="D578" s="1">
+        <v>5</v>
       </c>
       <c r="F578" s="2">
-        <v>43953.458333333336</v>
+        <v>43953.375</v>
       </c>
       <c r="G578" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.3">
@@ -12323,19 +12323,19 @@
         <v>578</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C579" s="1">
-        <v>2</v>
-      </c>
-      <c r="D579" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D579" s="1">
+        <v>5</v>
       </c>
       <c r="F579" s="2">
-        <v>0.54166666666666663</v>
+        <v>43953.416666666664</v>
       </c>
       <c r="G579" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.3">
@@ -12343,19 +12343,19 @@
         <v>579</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C580" s="1">
-        <v>2</v>
-      </c>
-      <c r="D580" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D580" s="1">
+        <v>5</v>
       </c>
       <c r="F580" s="2">
-        <v>0.625</v>
+        <v>43953.489583333336</v>
       </c>
       <c r="G580" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.3">
@@ -12363,16 +12363,16 @@
         <v>580</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C581" s="1">
-        <v>3</v>
-      </c>
-      <c r="D581" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D581" s="1">
+        <v>5</v>
       </c>
       <c r="F581" s="2">
-        <v>0.70833333333333337</v>
+        <v>43953.5625</v>
       </c>
       <c r="G581" s="1">
         <v>105</v>
@@ -12383,16 +12383,16 @@
         <v>581</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C582" s="1">
-        <v>3</v>
-      </c>
-      <c r="D582" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D582" s="1">
+        <v>5</v>
       </c>
       <c r="F582" s="2">
-        <v>0.375</v>
+        <v>43953.635416666664</v>
       </c>
       <c r="G582" s="1">
         <v>105</v>
@@ -12403,16 +12403,16 @@
         <v>582</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C583" s="1">
-        <v>3</v>
-      </c>
-      <c r="D583" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D583" s="1">
+        <v>5</v>
       </c>
       <c r="F583" s="2">
-        <v>0.44791666666666669</v>
+        <v>43953.708333333336</v>
       </c>
       <c r="G583" s="1">
         <v>105</v>
@@ -12423,19 +12423,19 @@
         <v>583</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C584" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F584" s="2">
-        <v>0.52083333333333337</v>
+        <v>43953.375</v>
       </c>
       <c r="G584" s="1">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.3">
@@ -12443,19 +12443,19 @@
         <v>584</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C585" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F585" s="2">
-        <v>0.59375</v>
+        <v>43953.416666666664</v>
       </c>
       <c r="G585" s="1">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.3">
@@ -12463,19 +12463,19 @@
         <v>585</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C586" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F586" s="2">
-        <v>0.66666666666666663</v>
+        <v>43953.458333333336</v>
       </c>
       <c r="G586" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.3">
@@ -12483,19 +12483,19 @@
         <v>586</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C587" s="1">
-        <v>1</v>
-      </c>
-      <c r="D587" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F587" s="2">
-        <v>43955.75</v>
+        <v>43953.520833333336</v>
       </c>
       <c r="G587" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.3">
@@ -12503,19 +12503,19 @@
         <v>587</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C588" s="1">
-        <v>1</v>
-      </c>
-      <c r="D588" s="1">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F588" s="2">
-        <v>43955.833333333336</v>
+        <v>43953.583333333336</v>
       </c>
       <c r="G588" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.3">
@@ -12523,19 +12523,19 @@
         <v>588</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C589" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F589" s="2">
-        <v>43955.75</v>
+        <v>43953.645833333336</v>
       </c>
       <c r="G589" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.3">
@@ -12543,19 +12543,19 @@
         <v>589</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C590" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F590" s="2">
-        <v>43955.833333333336</v>
+        <v>43953.71875</v>
       </c>
       <c r="G590" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.3">
@@ -12563,19 +12563,19 @@
         <v>590</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C591" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F591" s="2">
-        <v>43955.75</v>
+        <v>43953.375</v>
       </c>
       <c r="G591" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.3">
@@ -12583,19 +12583,19 @@
         <v>591</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C592" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F592" s="2">
-        <v>43955.822916666664</v>
+        <v>43953.458333333336</v>
       </c>
       <c r="G592" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.3">
@@ -12603,19 +12603,19 @@
         <v>592</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C593" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F593" s="2">
-        <v>43955.75</v>
+        <v>43953.541666666664</v>
       </c>
       <c r="G593" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.3">
@@ -12623,19 +12623,19 @@
         <v>593</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C594" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F594" s="2">
-        <v>43955.8125</v>
+        <v>43953.625</v>
       </c>
       <c r="G594" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.3">
@@ -12643,16 +12643,16 @@
         <v>594</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C595" s="1">
         <v>3</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F595" s="2">
-        <v>43955.75</v>
+        <v>43953.708333333336</v>
       </c>
       <c r="G595" s="1">
         <v>105</v>
@@ -12663,16 +12663,16 @@
         <v>595</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C596" s="1">
         <v>3</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F596" s="2">
-        <v>43955.822916666664</v>
+        <v>43953.375</v>
       </c>
       <c r="G596" s="1">
         <v>105</v>
@@ -12683,19 +12683,19 @@
         <v>596</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C597" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D597" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F597" s="2">
-        <v>43955.75</v>
+        <v>43953.447916666664</v>
       </c>
       <c r="G597" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.3">
@@ -12703,19 +12703,19 @@
         <v>597</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C598" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D598" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F598" s="2">
-        <v>43955.833333333336</v>
+        <v>43953.520833333336</v>
       </c>
       <c r="G598" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.3">
@@ -12732,7 +12732,7 @@
         <v>17</v>
       </c>
       <c r="F599" s="2">
-        <v>43955.75</v>
+        <v>43953.59375</v>
       </c>
       <c r="G599" s="1">
         <v>105</v>
@@ -12752,7 +12752,7 @@
         <v>17</v>
       </c>
       <c r="F600" s="2">
-        <v>43955.822916666664</v>
+        <v>43953.666666666664</v>
       </c>
       <c r="G600" s="1">
         <v>105</v>
@@ -12772,7 +12772,7 @@
         <v>2</v>
       </c>
       <c r="F601" s="2">
-        <v>43956.75</v>
+        <v>43955.75</v>
       </c>
       <c r="G601" s="1">
         <v>120</v>
@@ -12792,7 +12792,7 @@
         <v>2</v>
       </c>
       <c r="F602" s="2">
-        <v>43956.833333333336</v>
+        <v>43955.833333333336</v>
       </c>
       <c r="G602" s="1">
         <v>120</v>
@@ -12812,7 +12812,7 @@
         <v>16</v>
       </c>
       <c r="F603" s="2">
-        <v>43956.75</v>
+        <v>43955.75</v>
       </c>
       <c r="G603" s="1">
         <v>120</v>
@@ -12832,7 +12832,7 @@
         <v>16</v>
       </c>
       <c r="F604" s="2">
-        <v>43956.833333333336</v>
+        <v>43955.833333333336</v>
       </c>
       <c r="G604" s="1">
         <v>120</v>
@@ -12852,7 +12852,7 @@
         <v>13</v>
       </c>
       <c r="F605" s="2">
-        <v>43956.75</v>
+        <v>43955.75</v>
       </c>
       <c r="G605" s="1">
         <v>105</v>
@@ -12872,7 +12872,7 @@
         <v>13</v>
       </c>
       <c r="F606" s="2">
-        <v>43956.822916666664</v>
+        <v>43955.822916666664</v>
       </c>
       <c r="G606" s="1">
         <v>105</v>
@@ -12883,19 +12883,19 @@
         <v>606</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C607" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D607" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F607" s="2">
-        <v>43956.75</v>
+        <v>43955.75</v>
       </c>
       <c r="G607" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.3">
@@ -12903,19 +12903,19 @@
         <v>607</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C608" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F608" s="2">
-        <v>43956.822916666664</v>
+        <v>43955.8125</v>
       </c>
       <c r="G608" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.3">
@@ -12923,16 +12923,16 @@
         <v>608</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C609" s="1">
         <v>3</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F609" s="2">
-        <v>43956.75</v>
+        <v>43955.75</v>
       </c>
       <c r="G609" s="1">
         <v>105</v>
@@ -12943,19 +12943,19 @@
         <v>609</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C610" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F610" s="2">
-        <v>43956.822916666664</v>
+        <v>43955.822916666664</v>
       </c>
       <c r="G610" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.3">
@@ -12963,19 +12963,19 @@
         <v>610</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C611" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D611" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F611" s="2">
-        <v>43956.75</v>
+        <v>43955.75</v>
       </c>
       <c r="G611" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.3">
@@ -12983,7 +12983,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C612" s="1">
         <v>2</v>
@@ -12992,7 +12992,7 @@
         <v>17</v>
       </c>
       <c r="F612" s="2">
-        <v>43956.822916666664</v>
+        <v>43955.833333333336</v>
       </c>
       <c r="G612" s="1">
         <v>120</v>
@@ -13003,19 +13003,19 @@
         <v>612</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C613" s="1">
-        <v>1</v>
-      </c>
-      <c r="D613" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F613" s="2">
-        <v>43957.75</v>
+        <v>43955.75</v>
       </c>
       <c r="G613" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.3">
@@ -13023,19 +13023,19 @@
         <v>613</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C614" s="1">
-        <v>1</v>
-      </c>
-      <c r="D614" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F614" s="2">
-        <v>43957.833333333336</v>
+        <v>43955.822916666664</v>
       </c>
       <c r="G614" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.3">
@@ -13043,16 +13043,16 @@
         <v>614</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C615" s="1">
-        <v>2</v>
-      </c>
-      <c r="D615" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="D615" s="1">
+        <v>2</v>
       </c>
       <c r="F615" s="2">
-        <v>43957.75</v>
+        <v>43956.75</v>
       </c>
       <c r="G615" s="1">
         <v>120</v>
@@ -13063,16 +13063,16 @@
         <v>615</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C616" s="1">
-        <v>2</v>
-      </c>
-      <c r="D616" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="D616" s="1">
+        <v>2</v>
       </c>
       <c r="F616" s="2">
-        <v>43957.833333333336</v>
+        <v>43956.833333333336</v>
       </c>
       <c r="G616" s="1">
         <v>120</v>
@@ -13083,19 +13083,19 @@
         <v>616</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C617" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D617" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F617" s="2">
-        <v>43957.75</v>
+        <v>43956.75</v>
       </c>
       <c r="G617" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.3">
@@ -13103,19 +13103,19 @@
         <v>617</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C618" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F618" s="2">
-        <v>43957.822916666664</v>
+        <v>43956.833333333336</v>
       </c>
       <c r="G618" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.3">
@@ -13123,16 +13123,16 @@
         <v>618</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C619" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F619" s="2">
-        <v>43957.75</v>
+        <v>43956.75</v>
       </c>
       <c r="G619" s="1">
         <v>105</v>
@@ -13143,16 +13143,16 @@
         <v>619</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C620" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F620" s="2">
-        <v>43957.822916666664</v>
+        <v>43956.822916666664</v>
       </c>
       <c r="G620" s="1">
         <v>105</v>
@@ -13163,19 +13163,19 @@
         <v>620</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C621" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F621" s="2">
-        <v>43957.75</v>
+        <v>43956.75</v>
       </c>
       <c r="G621" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.3">
@@ -13183,19 +13183,19 @@
         <v>621</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C622" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F622" s="2">
-        <v>43957.75</v>
+        <v>43956.8125</v>
       </c>
       <c r="G622" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.3">
@@ -13203,19 +13203,19 @@
         <v>622</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C623" s="1">
-        <v>1</v>
-      </c>
-      <c r="D623" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F623" s="2">
-        <v>43960.375</v>
+        <v>43956.75</v>
       </c>
       <c r="G623" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.3">
@@ -13223,19 +13223,19 @@
         <v>623</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C624" s="1">
-        <v>1</v>
-      </c>
-      <c r="D624" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F624" s="2">
-        <v>43960.458333333336</v>
+        <v>43956.822916666664</v>
       </c>
       <c r="G624" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.3">
@@ -13243,16 +13243,16 @@
         <v>624</v>
       </c>
       <c r="B625" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C625" s="1">
-        <v>1</v>
-      </c>
-      <c r="D625" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F625" s="2">
-        <v>43960.541666666664</v>
+        <v>43956.75</v>
       </c>
       <c r="G625" s="1">
         <v>120</v>
@@ -13263,16 +13263,16 @@
         <v>625</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C626" s="1">
-        <v>1</v>
-      </c>
-      <c r="D626" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F626" s="2">
-        <v>43960.625</v>
+        <v>43956.833333333336</v>
       </c>
       <c r="G626" s="1">
         <v>120</v>
@@ -13283,19 +13283,19 @@
         <v>626</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C627" s="1">
-        <v>1</v>
-      </c>
-      <c r="D627" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F627" s="2">
-        <v>43960.708333333336</v>
+        <v>43956.75</v>
       </c>
       <c r="G627" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.3">
@@ -13303,19 +13303,19 @@
         <v>627</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C628" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D628" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F628" s="2">
-        <v>43960.375</v>
+        <v>43956.822916666664</v>
       </c>
       <c r="G628" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.3">
@@ -13323,16 +13323,16 @@
         <v>628</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C629" s="1">
-        <v>2</v>
-      </c>
-      <c r="D629" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="D629" s="1">
+        <v>2</v>
       </c>
       <c r="F629" s="2">
-        <v>43960.458333333336</v>
+        <v>43957.75</v>
       </c>
       <c r="G629" s="1">
         <v>120</v>
@@ -13343,16 +13343,16 @@
         <v>629</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C630" s="1">
-        <v>2</v>
-      </c>
-      <c r="D630" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="D630" s="1">
+        <v>2</v>
       </c>
       <c r="F630" s="2">
-        <v>43960.541666666664</v>
+        <v>43957.833333333336</v>
       </c>
       <c r="G630" s="1">
         <v>120</v>
@@ -13372,7 +13372,7 @@
         <v>16</v>
       </c>
       <c r="F631" s="2">
-        <v>43960.625</v>
+        <v>43957.75</v>
       </c>
       <c r="G631" s="1">
         <v>120</v>
@@ -13392,7 +13392,7 @@
         <v>16</v>
       </c>
       <c r="F632" s="2">
-        <v>43960.708333333336</v>
+        <v>43957.833333333336</v>
       </c>
       <c r="G632" s="1">
         <v>120</v>
@@ -13406,16 +13406,16 @@
         <v>12</v>
       </c>
       <c r="C633" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D633" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F633" s="2">
-        <v>43960.375</v>
+        <v>43957.75</v>
       </c>
       <c r="G633" s="1">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.3">
@@ -13432,7 +13432,7 @@
         <v>13</v>
       </c>
       <c r="F634" s="2">
-        <v>43960.416666666664</v>
+        <v>43957.822916666664</v>
       </c>
       <c r="G634" s="1">
         <v>105</v>
@@ -13443,19 +13443,19 @@
         <v>634</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C635" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F635" s="2">
-        <v>43960.489583333336</v>
+        <v>43957.75</v>
       </c>
       <c r="G635" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.3">
@@ -13463,19 +13463,19 @@
         <v>635</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C636" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F636" s="2">
-        <v>43960.5625</v>
+        <v>43957.8125</v>
       </c>
       <c r="G636" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.3">
@@ -13483,16 +13483,16 @@
         <v>636</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C637" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D637" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F637" s="2">
-        <v>43960.635416666664</v>
+        <v>43957.75</v>
       </c>
       <c r="G637" s="1">
         <v>105</v>
@@ -13503,16 +13503,16 @@
         <v>637</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C638" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D638" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F638" s="2">
-        <v>43960.708333333336</v>
+        <v>43957.822916666664</v>
       </c>
       <c r="G638" s="1">
         <v>105</v>
@@ -13523,19 +13523,19 @@
         <v>638</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C639" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D639" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F639" s="2">
-        <v>43960.375</v>
+        <v>43957.75</v>
       </c>
       <c r="G639" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.3">
@@ -13543,19 +13543,19 @@
         <v>639</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C640" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D640" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F640" s="2">
-        <v>43960.416666666664</v>
+        <v>43957.833333333336</v>
       </c>
       <c r="G640" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.3">
@@ -13563,19 +13563,19 @@
         <v>640</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C641" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D641" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F641" s="2">
-        <v>43960.479166666664</v>
+        <v>43957.75</v>
       </c>
       <c r="G641" s="1">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.3">
@@ -13583,19 +13583,19 @@
         <v>641</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C642" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F642" s="2">
-        <v>43960.541666666664</v>
+        <v>43957.822916666664</v>
       </c>
       <c r="G642" s="1">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.3">
@@ -13603,19 +13603,19 @@
         <v>642</v>
       </c>
       <c r="B643" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C643" s="1">
-        <v>5</v>
-      </c>
-      <c r="D643" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D643" s="1">
+        <v>2</v>
       </c>
       <c r="F643" s="2">
-        <v>43960.604166666664</v>
+        <v>43960.375</v>
       </c>
       <c r="G643" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.3">
@@ -13623,19 +13623,19 @@
         <v>643</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C644" s="1">
-        <v>5</v>
-      </c>
-      <c r="D644" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D644" s="1">
+        <v>2</v>
       </c>
       <c r="F644" s="2">
-        <v>43960.666666666664</v>
+        <v>43960.458333333336</v>
       </c>
       <c r="G644" s="1">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.3">
@@ -13643,19 +13643,19 @@
         <v>644</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C645" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D645" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F645" s="2">
-        <v>43960.375</v>
+        <v>43960.541666666664</v>
       </c>
       <c r="G645" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.3">
@@ -13663,19 +13663,19 @@
         <v>645</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C646" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D646" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F646" s="2">
-        <v>43960.416666666664</v>
+        <v>43960.625</v>
       </c>
       <c r="G646" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.3">
@@ -13683,19 +13683,19 @@
         <v>646</v>
       </c>
       <c r="B647" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C647" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D647" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F647" s="2">
-        <v>43960.489583333336</v>
+        <v>43960.708333333336</v>
       </c>
       <c r="G647" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.3">
@@ -13703,19 +13703,19 @@
         <v>647</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C648" s="1">
-        <v>4</v>
-      </c>
-      <c r="D648" s="1">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F648" s="2">
-        <v>43960.5625</v>
+        <v>43960.375</v>
       </c>
       <c r="G648" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.3">
@@ -13723,19 +13723,19 @@
         <v>648</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C649" s="1">
-        <v>4</v>
-      </c>
-      <c r="D649" s="1">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F649" s="2">
-        <v>43960.635416666664</v>
+        <v>43960.458333333336</v>
       </c>
       <c r="G649" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.3">
@@ -13743,19 +13743,19 @@
         <v>649</v>
       </c>
       <c r="B650" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C650" s="1">
-        <v>4</v>
-      </c>
-      <c r="D650" s="1">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F650" s="2">
-        <v>43960.708333333336</v>
+        <v>43960.541666666664</v>
       </c>
       <c r="G650" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.3">
@@ -13763,19 +13763,19 @@
         <v>650</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C651" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D651" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F651" s="2">
-        <v>43960.375</v>
+        <v>43960.625</v>
       </c>
       <c r="G651" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.3">
@@ -13783,19 +13783,19 @@
         <v>651</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C652" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F652" s="2">
-        <v>43960.416666666664</v>
+        <v>43960.708333333336</v>
       </c>
       <c r="G652" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.3">
@@ -13803,19 +13803,19 @@
         <v>652</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C653" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D653" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F653" s="2">
-        <v>43960.458333333336</v>
+        <v>43960.375</v>
       </c>
       <c r="G653" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.3">
@@ -13823,19 +13823,19 @@
         <v>653</v>
       </c>
       <c r="B654" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C654" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D654" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F654" s="2">
-        <v>43960.520833333336</v>
+        <v>43960.416666666664</v>
       </c>
       <c r="G654" s="1">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.3">
@@ -13843,19 +13843,19 @@
         <v>654</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C655" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D655" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F655" s="2">
-        <v>43960.583333333336</v>
+        <v>43960.489583333336</v>
       </c>
       <c r="G655" s="1">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.3">
@@ -13863,16 +13863,16 @@
         <v>655</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C656" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D656" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F656" s="2">
-        <v>43960.645833333336</v>
+        <v>43960.5625</v>
       </c>
       <c r="G656" s="1">
         <v>105</v>
@@ -13883,16 +13883,16 @@
         <v>656</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C657" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D657" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F657" s="2">
-        <v>43960.71875</v>
+        <v>43960.635416666664</v>
       </c>
       <c r="G657" s="1">
         <v>105</v>
@@ -13903,19 +13903,19 @@
         <v>657</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C658" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D658" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F658" s="2">
-        <v>43960.375</v>
+        <v>43960.708333333336</v>
       </c>
       <c r="G658" s="1">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.3">
@@ -13923,19 +13923,19 @@
         <v>658</v>
       </c>
       <c r="B659" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C659" s="1">
         <v>7</v>
       </c>
-      <c r="C659" s="1">
-        <v>2</v>
-      </c>
       <c r="D659" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F659" s="2">
-        <v>43960.458333333336</v>
+        <v>43960.375</v>
       </c>
       <c r="G659" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.3">
@@ -13943,19 +13943,19 @@
         <v>659</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C660" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D660" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F660" s="2">
-        <v>0.54166666666666663</v>
+        <v>43960.416666666664</v>
       </c>
       <c r="G660" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.3">
@@ -13963,19 +13963,19 @@
         <v>660</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C661" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D661" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F661" s="2">
-        <v>0.625</v>
+        <v>43960.479166666664</v>
       </c>
       <c r="G661" s="1">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.3">
@@ -13983,19 +13983,19 @@
         <v>661</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C662" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F662" s="2">
-        <v>0.70833333333333337</v>
+        <v>43960.541666666664</v>
       </c>
       <c r="G662" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.3">
@@ -14003,19 +14003,19 @@
         <v>662</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C663" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D663" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F663" s="2">
-        <v>0.375</v>
+        <v>43960.604166666664</v>
       </c>
       <c r="G663" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.3">
@@ -14023,19 +14023,19 @@
         <v>663</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C664" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D664" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F664" s="2">
-        <v>0.44791666666666669</v>
+        <v>43960.666666666664</v>
       </c>
       <c r="G664" s="1">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.3">
@@ -14043,19 +14043,19 @@
         <v>664</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C665" s="1">
-        <v>3</v>
-      </c>
-      <c r="D665" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="D665" s="1">
+        <v>5</v>
       </c>
       <c r="F665" s="2">
-        <v>0.52083333333333337</v>
+        <v>43960.375</v>
       </c>
       <c r="G665" s="1">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.3">
@@ -14063,16 +14063,16 @@
         <v>665</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C666" s="1">
-        <v>3</v>
-      </c>
-      <c r="D666" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D666" s="1">
+        <v>5</v>
       </c>
       <c r="F666" s="2">
-        <v>0.59375</v>
+        <v>43960.416666666664</v>
       </c>
       <c r="G666" s="1">
         <v>105</v>
@@ -14083,18 +14083,418 @@
         <v>666</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C667" s="1">
+        <v>4</v>
+      </c>
+      <c r="D667" s="1">
+        <v>5</v>
+      </c>
+      <c r="F667" s="2">
+        <v>43960.489583333336</v>
+      </c>
+      <c r="G667" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A668" s="1">
+        <v>667</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C668" s="1">
+        <v>4</v>
+      </c>
+      <c r="D668" s="1">
+        <v>5</v>
+      </c>
+      <c r="F668" s="2">
+        <v>43960.5625</v>
+      </c>
+      <c r="G668" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A669" s="1">
+        <v>668</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C669" s="1">
+        <v>4</v>
+      </c>
+      <c r="D669" s="1">
+        <v>5</v>
+      </c>
+      <c r="F669" s="2">
+        <v>43960.635416666664</v>
+      </c>
+      <c r="G669" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A670" s="1">
+        <v>669</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C670" s="1">
+        <v>4</v>
+      </c>
+      <c r="D670" s="1">
+        <v>5</v>
+      </c>
+      <c r="F670" s="2">
+        <v>43960.708333333336</v>
+      </c>
+      <c r="G670" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A671" s="1">
+        <v>670</v>
+      </c>
+      <c r="B671" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C671" s="1">
+        <v>6</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F671" s="2">
+        <v>43960.375</v>
+      </c>
+      <c r="G671" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A672" s="1">
+        <v>671</v>
+      </c>
+      <c r="B672" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C672" s="1">
+        <v>6</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F672" s="2">
+        <v>43960.416666666664</v>
+      </c>
+      <c r="G672" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A673" s="1">
+        <v>672</v>
+      </c>
+      <c r="B673" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C673" s="1">
+        <v>5</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F673" s="2">
+        <v>43960.458333333336</v>
+      </c>
+      <c r="G673" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A674" s="1">
+        <v>673</v>
+      </c>
+      <c r="B674" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C674" s="1">
+        <v>5</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F674" s="2">
+        <v>43960.520833333336</v>
+      </c>
+      <c r="G674" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A675" s="1">
+        <v>674</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C675" s="1">
+        <v>5</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F675" s="2">
+        <v>43960.583333333336</v>
+      </c>
+      <c r="G675" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A676" s="1">
+        <v>675</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C676" s="1">
         <v>3</v>
       </c>
-      <c r="D667" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F667" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G667" s="1">
+      <c r="D676" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F676" s="2">
+        <v>43960.645833333336</v>
+      </c>
+      <c r="G676" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A677" s="1">
+        <v>676</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C677" s="1">
+        <v>3</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F677" s="2">
+        <v>43960.71875</v>
+      </c>
+      <c r="G677" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A678" s="1">
+        <v>677</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C678" s="1">
+        <v>1</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F678" s="2">
+        <v>43960.375</v>
+      </c>
+      <c r="G678" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A679" s="1">
+        <v>678</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C679" s="1">
+        <v>2</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F679" s="2">
+        <v>43960.458333333336</v>
+      </c>
+      <c r="G679" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A680" s="1">
+        <v>679</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C680" s="1">
+        <v>2</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F680" s="2">
+        <v>43960.541666666664</v>
+      </c>
+      <c r="G680" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A681" s="1">
+        <v>680</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C681" s="1">
+        <v>2</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F681" s="2">
+        <v>43960.625</v>
+      </c>
+      <c r="G681" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A682" s="1">
+        <v>681</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C682" s="1">
+        <v>3</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F682" s="2">
+        <v>43960.708333333336</v>
+      </c>
+      <c r="G682" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A683" s="1">
+        <v>682</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C683" s="1">
+        <v>3</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F683" s="2">
+        <v>43960.375</v>
+      </c>
+      <c r="G683" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A684" s="1">
+        <v>683</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C684" s="1">
+        <v>3</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F684" s="2">
+        <v>43960.447916666664</v>
+      </c>
+      <c r="G684" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A685" s="1">
+        <v>684</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C685" s="1">
+        <v>3</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F685" s="2">
+        <v>43960.520833333336</v>
+      </c>
+      <c r="G685" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A686" s="1">
+        <v>685</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C686" s="1">
+        <v>3</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F686" s="2">
+        <v>43960.59375</v>
+      </c>
+      <c r="G686" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A687" s="1">
+        <v>686</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C687" s="1">
+        <v>3</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F687" s="2">
+        <v>43960.666666666664</v>
+      </c>
+      <c r="G687" s="1">
         <v>105</v>
       </c>
     </row>
